--- a/Data_preparation/datasets/final_data/NETFLIX_INC.xlsx
+++ b/Data_preparation/datasets/final_data/NETFLIX_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>59.64285659790039</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>79.5</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>82.30428314208984</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>58.46428680419922</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>423732334</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>25208945789</v>
@@ -888,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>94.80571746826172</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>114.3099975585938</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>117.879997253418</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>92.28428649902344</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>423732334</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>39824176454</v>
@@ -1016,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>102.9100036621094</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>108.379997253418</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>115.8300018310547</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>96.26000213623048</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>423732334</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>43980738752</v>
@@ -1144,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>91.83999633789062</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>122.1800003051758</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>90.11000061035156</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>423732334</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>48884672381</v>
@@ -1272,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>102.9300003051758</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>90.02999877929688</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>111.8499984741211</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>88.20999908447266</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>423732334</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>43762743223</v>
@@ -1400,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>95</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>91.25</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>101.2699966430664</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>84.5</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>423732334</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>39179897480</v>
@@ -1528,22 +1420,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>124.870002746582</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>129.2899932861328</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>97.62999725341795</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>423732334</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>42250886987</v>
@@ -1656,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>124.9599990844727</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>140.7100067138672</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>143.4600067138672</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>423732334</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>53128153847</v>
@@ -1784,22 +1676,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>153.5200042724609</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>138.6600036621094</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>423732334</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>63619137561</v>
@@ -1912,22 +1804,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>181.6600036621093</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>191.5</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>144.25</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>423732334</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>64394728227</v>
@@ -2040,22 +1932,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>182.1100006103516</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>196.4299926757812</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>204.3800048828125</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>176.5800018310547</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>423732334</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>78297816074</v>
@@ -2168,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>196.1000061035156</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>270.2999877929688</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>286.8099975585937</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>195.4199981689453</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>423732334</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>83067067715</v>
@@ -2296,22 +2188,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>291.9400024414062</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>312.4599914550781</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>338.8200073242188</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>271.2200012207031</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>423732334</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>128166677956</v>
@@ -2424,22 +2316,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>385.4500122070313</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>337.4500122070312</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>419.7699890136719</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>328</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>423732334</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>170137908113</v>
@@ -2552,22 +2444,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>375.8500061035156</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>301.7799987792969</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>386.7999877929688</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>271.2099914550781</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>423732334</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>162917716346</v>
@@ -2680,22 +2572,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>259.2799987792969</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>339.5</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>358.8500061035156</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>256.5799865722656</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>423732334</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>116722509762</v>
@@ -2808,22 +2700,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>359</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>370.5400085449219</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>384.7999877929688</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>342.2699890136719</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>423732334</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>155673595746</v>
@@ -2936,22 +2828,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>373.5</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>322.989990234375</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>384.760009765625</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>305.8099975585937</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>423732334</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>160589325402</v>
@@ -3064,22 +2956,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>267.3500061035156</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>287.4100036621094</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>308.75</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>257.010009765625</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>423732334</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>117173371121</v>
@@ -3192,22 +3084,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>326.1000061035156</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>345.0899963378906</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>359.8500061035156</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>321.2000122070312</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>423732334</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>141804969582</v>
@@ -3320,22 +3212,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>376.0499877929688</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>419.8500061035156</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>449.5199890136719</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>357.510009765625</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>423732334</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>164771896700</v>
@@ -3448,22 +3340,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>454</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>488.8800048828125</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>575.3699951171875</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>454</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>423732334</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>200117772415</v>
@@ -3576,22 +3468,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>506.0299987792969</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>475.739990234375</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>572.489990234375</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>472.2099914550781</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>423732334</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>220520951963</v>
@@ -3704,22 +3596,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>539</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>532.3900146484375</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>593.2899780273438</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>485.6700134277344</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>423732334</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>238891814676</v>
@@ -3844,7 +3736,7 @@
         <v>499</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>423732334</v>
       </c>
       <c r="I26" t="s">
         <v>42</v>
@@ -3960,22 +3852,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>525.719970703125</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>517.5700073242188</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>557.5399780273438</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>504.6600036621094</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>423732334</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>234199721080</v>
@@ -4088,22 +3980,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>604.239990234375</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>690.3099975585938</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>690.969970703125</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>594.6799926757812</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>423732334</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>270133974282</v>
@@ -4216,22 +4108,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>605.6099853515625</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>427.1400146484375</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>609.989990234375</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>351.4599914550781</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>423732334</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>266852119753</v>
@@ -4344,22 +4236,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>376.7999877929688</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>190.3600006103516</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>396.0199890136719</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>423732334</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>166304140251</v>
@@ -4472,22 +4364,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>176.4900054931641</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>224.8999938964844</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>230.75</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>169.6999969482422</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>423732334</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>77690168150</v>
@@ -4600,22 +4492,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>237.8500061035156</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>291.8800048828125</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>305.6300048828125</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>211.729995727539</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>423732334</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>104701484345</v>
@@ -4728,22 +4620,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>298.0599975585937</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>353.8599853515625</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>369.0199890136719</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>288.7000122070312</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>423732334</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>131227643271</v>
@@ -4856,22 +4748,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>341.8299865722656</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>329.9299926757812</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>349.7999877929688</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>316.1000061035156</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>423732334</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>153858404172</v>
@@ -4984,22 +4876,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>439.760009765625</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>438.9700012207031</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>485</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>411.8800048828125</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>423732334</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>195814049390</v>
@@ -5112,22 +5004,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>377.4800109863281</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>411.6900024414063</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>418.8399963378906</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>344.7300109863281</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>423732334</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>167332213178</v>
@@ -5240,22 +5132,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>483.1900024414063</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>564.1099853515625</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>579.6400146484375</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>461.8599853515625</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>423732334</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>213097477243</v>
@@ -5368,22 +5260,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>608</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>550.6400146484375</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>639</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>542.010009765625</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>423732334</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>262827878151</v>
@@ -5496,22 +5388,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>674.8900146484375</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>628.3499755859375</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>697.489990234375</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>617</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>423732334</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>290849653126</v>
@@ -5624,22 +5516,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>713.6400146484375</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>756.030029296875</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>773</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>677.8800048828125</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>423732334</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>304393586481</v>
@@ -5752,22 +5644,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>895.5</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>976.760009765625</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>999</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>823.52001953125</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>423732334</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>381001966170</v>
@@ -5880,22 +5772,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>927.5</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>1131.719970703125</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>1133.199951171875</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>821.0999755859375</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>423732334</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>398896328463</v>
@@ -6008,22 +5900,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>1338.22998046875</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>1159.400024414062</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>1338.77001953125</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>1157.739990234375</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>423732334</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>570045157007</v>
@@ -6136,22 +6028,22 @@
         <v>45930</v>
       </c>
       <c r="D44">
-        <v>347.5400085449219</v>
+        <v>1175.489990234375</v>
       </c>
       <c r="E44">
-        <v>348.1099853515625</v>
+        <v>1094.68994140625</v>
       </c>
       <c r="F44">
-        <v>354.9800109863281</v>
+        <v>1248.599975585938</v>
       </c>
       <c r="G44">
-        <v>342.1799926757812</v>
+        <v>1094.410034179688</v>
       </c>
       <c r="H44">
-        <v>112434397</v>
+        <v>423732334</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>509452694746</v>
